--- a/Phase2/InstancesV2/InstanceAustraliaV2.xlsx
+++ b/Phase2/InstancesV2/InstanceAustraliaV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-laurencethoux/Documents/Thèse/ST_CtlSup/InstancesV2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\projetST7\Phase2\InstancesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF615BA-4C6F-6F46-BDA2-7083CBC6A94F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558C4C3-4402-4FEF-9628-B06A84872DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="3380" windowWidth="26880" windowHeight="21160" activeTab="3" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tasks" sheetId="2" r:id="rId3"/>
     <sheet name="Tasks Unavailabilities" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>Latitude</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>11:30am</t>
+  </si>
+  <si>
+    <t>6:00am</t>
   </si>
 </sst>
 </file>
@@ -674,11 +677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -689,7 +692,7 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -712,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -735,7 +738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -752,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -781,11 +784,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -800,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219211A2-3470-FA4D-98F8-982783253CF4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -812,7 +815,7 @@
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -829,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -855,11 +858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -871,7 +874,7 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -897,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -923,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -949,7 +952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -975,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1313,319 +1316,319 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="1"/>
     </row>
   </sheetData>
@@ -1638,13 +1641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AD92C6-B4F4-614C-BEE0-83D086C441D2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
